--- a/数据整理/stocks/A股/科创板/688390-固德威.xlsx
+++ b/数据整理/stocks/A股/科创板/688390-固德威.xlsx
@@ -451,603 +451,813 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>501188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>175.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2943</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5960</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4397</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>501039</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>汇添富睿丰混合（LOF）A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>29.70</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>501040</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>汇添富睿丰混合（LOF）C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>29.70</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008093</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>同泰慧选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008094</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>同泰慧选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>506002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>60.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005669</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源公用事业行业股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000689</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519110</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>浦银安盛价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>519113</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>浦银安盛精致生活混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006013</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006014</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001709</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华富物联世界灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>88.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001816</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富新睿精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>29.88</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002064</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华富产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>86.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002164</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇添富新睿精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>29.88</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002419</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇添富盈安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>519120</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>浦银安盛新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>92.37</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501076</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华科创主题3年封闭灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>59.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>501188</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>31.27</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004794</t>
+          <t>501188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合A</t>
+          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>178.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>33.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8141</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004795</t>
+          <t>001576</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合C</t>
+          <t>国泰智能装备股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8323</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>506002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>27.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>519110</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>浦银安盛价值成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>501076</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>82.16</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3240</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1248,15 +1518,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.52</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.40</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501039</t>
+          <t>001816</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富睿丰混合（LOF）A</t>
+          <t>汇添富新睿精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>29.61</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501040</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富睿丰混合（LOF）C</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>29.61</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501076</t>
+          <t>002164</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华科创主题3年封闭灵活配置混合</t>
+          <t>汇添富新睿精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.71</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>501188</t>
+          <t>519120</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富3年封闭运作战略配售灵活配置混合（LOF）</t>
+          <t>浦银安盛新兴产业混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>33.83</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>506002</t>
+          <t>002064</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+          <t>华富产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>80.26</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001569</t>
+          <t>519113</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰信国策驱动灵活配置混合</t>
+          <t>浦银安盛精致生活混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>75.77</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001576</t>
+          <t>001569</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国泰智能装备股票A</t>
+          <t>泰信国策驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011322</t>
+          <t>003152</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国泰智能装备股票C</t>
+          <t>华富天鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.69</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>519110</t>
+          <t>008180</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>浦银安盛价值成长混合A</t>
+          <t>同泰慧利混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>519113</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>浦银安盛精致生活混合</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.02</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>519120</t>
+          <t>005855</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浦银安盛新兴产业混合</t>
+          <t>中科沃土沃瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001816</t>
+          <t>008093</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>汇添富新睿精选灵活配置混合A</t>
+          <t>同泰慧选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>76.75</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002164</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>汇添富新睿精选灵活配置混合C</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>76.75</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002064</t>
+          <t>008094</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华富产业升级灵活配置混合</t>
+          <t>同泰慧选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>80.71</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003152</t>
+          <t>501039</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华富天鑫灵活配置混合A</t>
+          <t>汇添富睿丰混合（LOF）A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003153</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华富天鑫灵活配置混合C</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.31</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>501040</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>汇添富睿丰混合（LOF）C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>003153</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>华富天鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008093</t>
+          <t>008181</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>同泰慧选混合A</t>
+          <t>同泰慧利混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008094</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>同泰慧选混合C</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008180</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>同泰慧利混合A</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1854,25 +2344,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008181</t>
+          <t>011322</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>同泰慧利混合C</t>
+          <t>国泰智能装备股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688390-固德威.xlsx
+++ b/数据整理/stocks/A股/科创板/688390-固德威.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2379,4 +2380,1806 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3270</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3097</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6881</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3592</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688390-固德威.xlsx
+++ b/数据整理/stocks/A股/科创板/688390-固德威.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4182,4 +4183,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3741</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5592</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5539</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4464</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3515</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3274</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011777</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2902</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519642</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河大国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011778</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688390-固德威.xlsx
+++ b/数据整理/stocks/A股/科创板/688390-固德威.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5379,4 +5380,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688390-固德威.xlsx
+++ b/数据整理/stocks/A股/科创板/688390-固德威.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5388,7 +5389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5399,17 +5400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5419,14 +5440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.05</v>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5435,14 +5478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.92</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>103.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5451,14 +5516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.32</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5467,13 +5554,1481 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6099</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3859</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0786</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5461</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>55.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4572</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4078</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012175</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>56.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3702</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3586</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3349</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3219</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2632</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2448</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达稳健回报一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>55.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>41.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012176</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达稳健增利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>56.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688390-固德威.xlsx
+++ b/数据整理/stocks/A股/科创板/688390-固德威.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6927,7 +6928,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6938,17 +6939,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6958,14 +6979,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.57</v>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6974,14 +7017,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.05</v>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2317</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6990,14 +7055,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.92</v>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1064</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -7006,14 +7093,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.32</v>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -7022,13 +7131,1835 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0340</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8938</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3229</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012096</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鑫元鑫动力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005262</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001571</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001572</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉合磐石混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005263</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鑫元欣享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688390-固德威.xlsx
+++ b/数据整理/stocks/A股/科创板/688390-固德威.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8842,7 +8843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8853,17 +8854,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8873,14 +8894,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.68</v>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -8889,14 +8932,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.57</v>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -8905,14 +8970,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.05</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4538</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -8921,14 +9008,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>46</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.92</v>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -8937,14 +9046,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.32</v>
+          <t>013147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2707</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -8953,13 +9084,4013 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013967</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>111.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1249</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0838</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9783</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8450</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012390</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7948</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7845</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6275</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6084</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6074</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5513</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5329</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013851</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5259</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5201</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>470008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4695</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4654</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4592</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4323</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013968</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发恒享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3657</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3510</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3292</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013852</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013148</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013184</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012029</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014191</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013185</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发恒阳一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014271</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014478</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商价值共享</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014192</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012391</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧产业前瞻混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014272</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成北交所两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>62.33</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012030</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014479</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中信证券信远一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>66.78</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>107</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688390-固德威.xlsx
+++ b/数据整理/stocks/A股/科创板/688390-固德威.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="D2" t="n">
-        <v>27.91</v>
+        <v>30.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="D3" t="n">
-        <v>13.68</v>
+        <v>27.91</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D4" t="n">
-        <v>23.57</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>14.05</v>
+        <v>23.57</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>8.92</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>7.32</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.08</v>
       </c>
     </row>
@@ -600,6 +617,4848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3885</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3608</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4422</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013147</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0533</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0023</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6762</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011271</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6218</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6135</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6108</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013852</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4982</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通中小盘混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4910</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4387</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013851</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014766</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012466</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006128</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013176</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013484</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2502</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013148</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013175</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1917</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014575</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012988</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014765</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014840</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商裕华混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>63.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012987</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉合锦明混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012411</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012410</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014522</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富低碳投资一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014574</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鑫元清洁能源混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华富新能源股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015011</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>015010</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉合锦鑫混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>62.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014509</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014508</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015665</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银河和美生活主题混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013711</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014903</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城新能源股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014902</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长城新能源股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东海海睿致远混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012467</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010821</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014523</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富低碳投资一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>910017</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>东方红多元策略混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011272</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富价值成长均衡投资混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>66.80</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>013040</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>海富通欣润混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>015197</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票D</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013039</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>海富通欣润混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>016463</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4713,7 +9572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6627,7 +11486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8165,7 +13024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9361,7 +14220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11163,7 +16022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12283,7 +17142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
